--- a/data/trans_orig/IP7_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A618FCC-3E83-4BEF-BA6D-C0261B6804FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E637C350-18F6-41B3-AA3E-994D7D4B38AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC66999D-CC16-4138-9368-92274B59D14C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{352CC2B3-2D32-4D77-BEC6-A1D83FE484C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="280">
   <si>
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -104,769 +104,781 @@
     <t>5,58%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
     <t>96,38%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>98,15%</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA034B9-BCDD-4FD8-957E-C9EC6A060DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CB4839-C57A-4DED-A60B-76A3FEBD7540}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,10 +2031,10 @@
         <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2031,13 +2043,13 @@
         <v>11645</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -2073,7 +2085,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>1000</v>
@@ -2082,10 +2094,10 @@
         <v>669376</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>86</v>
@@ -2179,7 +2191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56035D1F-B678-441E-B59D-A4B7803F4844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3AE887-3B4C-41D0-A112-05E4BA36569C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2515,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>89971</v>
+        <v>89972</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>104</v>
@@ -2566,7 +2578,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -3080,7 +3092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6279AA5A-E870-47CF-A064-3568D85693A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE435F8-201F-4671-A3B9-93E312B08A02}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,13 +3353,13 @@
         <v>2020</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3356,13 +3368,13 @@
         <v>2205</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3371,13 +3383,13 @@
         <v>4225</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3404,13 @@
         <v>66594</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -3407,13 +3419,13 @@
         <v>57173</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>182</v>
@@ -3422,13 +3434,13 @@
         <v>123768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,10 +3511,10 @@
         <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3511,13 +3523,13 @@
         <v>10121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -3526,13 +3538,13 @@
         <v>21496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,10 +3562,10 @@
         <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>694</v>
@@ -3562,13 +3574,13 @@
         <v>458872</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
@@ -3577,13 +3589,13 @@
         <v>934058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3663,13 @@
         <v>2103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3666,13 +3678,13 @@
         <v>1073</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3681,13 +3693,13 @@
         <v>3176</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3714,13 @@
         <v>184746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -3717,10 +3729,10 @@
         <v>170329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3732,13 +3744,13 @@
         <v>355075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3818,13 @@
         <v>15499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3821,13 +3833,13 @@
         <v>13398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3836,13 +3848,13 @@
         <v>28897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3869,13 @@
         <v>726525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>1034</v>
@@ -3872,13 +3884,13 @@
         <v>686375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>2073</v>
@@ -3887,13 +3899,13 @@
         <v>1412900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED17EBE-DEC3-44C9-822A-9B3A61F2EF78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE27345C-D84F-408A-965D-CA475C4C2426}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4242,13 +4254,13 @@
         <v>4302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4257,13 +4269,13 @@
         <v>3555</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4272,13 +4284,13 @@
         <v>7856</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4305,13 @@
         <v>54455</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -4308,13 +4320,13 @@
         <v>47647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -4323,13 +4335,13 @@
         <v>102103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4409,13 @@
         <v>7885</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4412,13 +4424,13 @@
         <v>11484</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4427,13 +4439,13 @@
         <v>19369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,10 +4463,10 @@
         <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>627</v>
@@ -4463,13 +4475,13 @@
         <v>438484</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1271</v>
@@ -4478,13 +4490,13 @@
         <v>922964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4564,13 @@
         <v>5065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4567,13 +4579,13 @@
         <v>2635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4582,13 +4594,13 @@
         <v>7700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4615,13 @@
         <v>169518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>227</v>
@@ -4618,13 +4630,13 @@
         <v>148735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -4633,13 +4645,13 @@
         <v>318252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4719,13 @@
         <v>17252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4725,10 +4737,10 @@
         <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4740,10 +4752,10 @@
         <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4770,13 @@
         <v>708452</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>921</v>
@@ -4776,10 +4788,10 @@
         <v>123</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>1874</v>
@@ -4791,10 +4803,10 @@
         <v>54</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP7_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E637C350-18F6-41B3-AA3E-994D7D4B38AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C153A789-C316-4838-BB3B-DC9E750501E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{352CC2B3-2D32-4D77-BEC6-A1D83FE484C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{99526224-310E-49D2-9829-9D2A349C04F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
   <si>
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,817 +68,784 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>97,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CB4839-C57A-4DED-A60B-76A3FEBD7540}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE44B0C7-96F2-4DD5-AB52-A8F5563B9BDA}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1408,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4503</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1423,81 +1390,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4811</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>86364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="I5" s="7">
+        <v>81390</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>167755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,151 +1477,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86201</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177068</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>4811</v>
+        <v>6510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>4503</v>
+        <v>16010</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>9313</v>
+        <v>22519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>618</v>
       </c>
       <c r="D8" s="7">
-        <v>81390</v>
+        <v>409577</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>129</v>
+        <v>693</v>
       </c>
       <c r="I8" s="7">
-        <v>86364</v>
+        <v>459481</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>251</v>
+        <v>1311</v>
       </c>
       <c r="N8" s="7">
-        <v>167755</v>
+        <v>869060</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,153 +1632,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>129</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86201</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>475491</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>265</v>
+        <v>1345</v>
       </c>
       <c r="N9" s="7">
-        <v>177068</v>
+        <v>891579</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>16010</v>
+        <v>632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>6510</v>
+        <v>4594</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>22519</v>
+        <v>5226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>693</v>
+        <v>253</v>
       </c>
       <c r="D11" s="7">
-        <v>459481</v>
+        <v>173434</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>618</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>409577</v>
+        <v>152877</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1311</v>
+        <v>481</v>
       </c>
       <c r="N11" s="7">
-        <v>869060</v>
+        <v>326311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,153 +1787,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>717</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>475491</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>157471</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1345</v>
+        <v>489</v>
       </c>
       <c r="N12" s="7">
-        <v>891579</v>
+        <v>331537</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>4594</v>
+        <v>11645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>632</v>
+        <v>25414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>5226</v>
+        <v>37059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>228</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="7">
-        <v>152877</v>
+        <v>669376</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>253</v>
+        <v>1043</v>
       </c>
       <c r="I14" s="7">
-        <v>173434</v>
+        <v>693749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>481</v>
+        <v>2043</v>
       </c>
       <c r="N14" s="7">
-        <v>326311</v>
+        <v>1363125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,216 +1942,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>157471</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1081</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>719163</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>489</v>
+        <v>2099</v>
       </c>
       <c r="N15" s="7">
-        <v>331537</v>
+        <v>1400184</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7">
-        <v>25414</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11645</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="7">
-        <v>56</v>
-      </c>
-      <c r="N16" s="7">
-        <v>37059</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1044</v>
-      </c>
-      <c r="D17" s="7">
-        <v>694476</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="7">
-        <v>669376</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2044</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1363852</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1082</v>
-      </c>
-      <c r="D18" s="7">
-        <v>719890</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2100</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1400911</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2191,8 +2008,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3AE887-3B4C-41D0-A112-05E4BA36569C}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D7899A-F5EA-4F11-A403-BC0FEDE3B4AA}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2208,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2309,96 +2126,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2397</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3710</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>6107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>89972</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="I5" s="7">
+        <v>81643</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>171614</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,151 +2228,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="I6" s="7">
+        <v>85353</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>177721</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>3710</v>
+        <v>12664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>2397</v>
+        <v>12777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>6107</v>
+        <v>25441</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>635</v>
+      </c>
+      <c r="D8" s="7">
+        <v>438112</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="7">
-        <v>81643</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H8" s="7">
-        <v>130</v>
+        <v>684</v>
       </c>
       <c r="I8" s="7">
-        <v>89972</v>
+        <v>478847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>245</v>
+        <v>1319</v>
       </c>
       <c r="N8" s="7">
-        <v>171614</v>
+        <v>916958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,153 +2383,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>120</v>
+        <v>653</v>
       </c>
       <c r="D9" s="7">
-        <v>85353</v>
+        <v>450776</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>704</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>491624</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>254</v>
+        <v>1357</v>
       </c>
       <c r="N9" s="7">
-        <v>177721</v>
+        <v>942399</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>12777</v>
+        <v>1558</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>12664</v>
+        <v>2240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>25441</v>
+        <v>3798</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>684</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>478847</v>
+        <v>164468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>635</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7">
-        <v>438112</v>
+        <v>169988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
-        <v>1319</v>
+        <v>474</v>
       </c>
       <c r="N11" s="7">
-        <v>916958</v>
+        <v>334456</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,153 +2538,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>704</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>491624</v>
+        <v>166026</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>653</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>450776</v>
+        <v>172228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1357</v>
+        <v>479</v>
       </c>
       <c r="N12" s="7">
-        <v>942399</v>
+        <v>338254</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>2240</v>
+        <v>16619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>1558</v>
+        <v>18726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>3798</v>
+        <v>35346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>241</v>
+        <v>998</v>
       </c>
       <c r="D14" s="7">
-        <v>169988</v>
+        <v>692551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>1040</v>
       </c>
       <c r="I14" s="7">
-        <v>164468</v>
+        <v>730479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
-        <v>474</v>
+        <v>2038</v>
       </c>
       <c r="N14" s="7">
-        <v>334456</v>
+        <v>1423029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,216 +2693,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>1022</v>
       </c>
       <c r="D15" s="7">
-        <v>172228</v>
+        <v>709170</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>1068</v>
       </c>
       <c r="I15" s="7">
-        <v>166026</v>
+        <v>749205</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>479</v>
+        <v>2090</v>
       </c>
       <c r="N15" s="7">
-        <v>338254</v>
+        <v>1458375</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7">
-        <v>18726</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16619</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" s="7">
-        <v>52</v>
-      </c>
-      <c r="N16" s="7">
-        <v>35346</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1041</v>
-      </c>
-      <c r="D17" s="7">
-        <v>731120</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="7">
-        <v>998</v>
-      </c>
-      <c r="I17" s="7">
-        <v>692551</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2039</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1423670</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1069</v>
-      </c>
-      <c r="D18" s="7">
-        <v>749846</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I18" s="7">
-        <v>709170</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2091</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1459016</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3092,8 +2759,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE435F8-201F-4671-A3B9-93E312B08A02}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5DD33D-2293-4680-A88F-AA5917ECF095}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3109,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3210,88 +2877,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2205</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2020</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4225</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="D5" s="7">
+        <v>57173</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66594</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="N5" s="7">
+        <v>123768</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,147 +2979,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>2020</v>
+        <v>10121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>2205</v>
+        <v>11375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>4225</v>
+        <v>21496</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>694</v>
       </c>
       <c r="D8" s="7">
-        <v>66594</v>
+        <v>458872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>676</v>
       </c>
       <c r="I8" s="7">
-        <v>57173</v>
+        <v>475186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
+        <v>1370</v>
+      </c>
+      <c r="N8" s="7">
+        <v>934058</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="N8" s="7">
-        <v>123768</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,153 +3134,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>709</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>468993</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>692</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>486561</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1401</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>955554</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>11375</v>
+        <v>1073</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>10121</v>
+        <v>2103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>21496</v>
+        <v>3176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>676</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>475186</v>
+        <v>170329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>694</v>
+        <v>267</v>
       </c>
       <c r="I11" s="7">
-        <v>458872</v>
+        <v>184746</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>1370</v>
+        <v>521</v>
       </c>
       <c r="N11" s="7">
-        <v>934058</v>
+        <v>355075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,153 +3289,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>692</v>
+        <v>256</v>
       </c>
       <c r="D12" s="7">
-        <v>486561</v>
+        <v>171402</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>709</v>
+        <v>270</v>
       </c>
       <c r="I12" s="7">
-        <v>468993</v>
+        <v>186849</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1401</v>
+        <v>526</v>
       </c>
       <c r="N12" s="7">
-        <v>955554</v>
+        <v>358251</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>2103</v>
+        <v>13398</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>1073</v>
+        <v>15499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>3176</v>
+        <v>28897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>267</v>
+        <v>1034</v>
       </c>
       <c r="D14" s="7">
-        <v>184746</v>
+        <v>686375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>1039</v>
       </c>
       <c r="I14" s="7">
-        <v>170329</v>
+        <v>726525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
-        <v>521</v>
+        <v>2073</v>
       </c>
       <c r="N14" s="7">
-        <v>355075</v>
+        <v>1412900</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,216 +3444,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>270</v>
+        <v>1054</v>
       </c>
       <c r="D15" s="7">
-        <v>186849</v>
+        <v>699773</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>256</v>
+        <v>1061</v>
       </c>
       <c r="I15" s="7">
-        <v>171402</v>
+        <v>742024</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>526</v>
+        <v>2115</v>
       </c>
       <c r="N15" s="7">
-        <v>358251</v>
+        <v>1441797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7">
-        <v>15499</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13398</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M16" s="7">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7">
-        <v>28897</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1039</v>
-      </c>
-      <c r="D17" s="7">
-        <v>726525</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I17" s="7">
-        <v>686375</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1412900</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D18" s="7">
-        <v>742024</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1054</v>
-      </c>
-      <c r="I18" s="7">
-        <v>699773</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2115</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1441797</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3981,8 +3510,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE27345C-D84F-408A-965D-CA475C4C2426}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8C95A2-4B7A-4CCA-AEBF-C49F924D1AC5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3998,7 +3527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4099,96 +3628,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6953</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47725</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>57279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>105004</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,151 +3730,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>4302</v>
+        <v>11631</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>3555</v>
+        <v>8417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>7856</v>
+        <v>20048</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>627</v>
       </c>
       <c r="D8" s="7">
-        <v>54455</v>
+        <v>448879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>644</v>
       </c>
       <c r="I8" s="7">
-        <v>47647</v>
+        <v>508202</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>143</v>
+        <v>1271</v>
       </c>
       <c r="N8" s="7">
-        <v>102103</v>
+        <v>957081</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,153 +3885,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>7885</v>
+        <v>2560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>11484</v>
+        <v>5527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>19369</v>
+        <v>8087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>644</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>484479</v>
+        <v>146991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>438484</v>
+        <v>177822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
-        <v>1271</v>
+        <v>459</v>
       </c>
       <c r="N11" s="7">
-        <v>922964</v>
+        <v>324813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,153 +4040,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>5065</v>
+        <v>21144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>2635</v>
+        <v>18669</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>7700</v>
+        <v>39813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>920</v>
       </c>
       <c r="D14" s="7">
-        <v>169518</v>
+        <v>643594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
-        <v>227</v>
+        <v>953</v>
       </c>
       <c r="I14" s="7">
-        <v>148735</v>
+        <v>743303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
-        <v>459</v>
+        <v>1873</v>
       </c>
       <c r="N14" s="7">
-        <v>318252</v>
+        <v>1386897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,216 +4195,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7">
-        <v>17252</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="7">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17674</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M16" s="7">
-        <v>46</v>
-      </c>
-      <c r="N16" s="7">
-        <v>34926</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>953</v>
-      </c>
-      <c r="D17" s="7">
-        <v>708452</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="7">
-        <v>921</v>
-      </c>
-      <c r="I17" s="7">
-        <v>636038</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1874</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1344490</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>977</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>943</v>
-      </c>
-      <c r="I18" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
